--- a/biology/Zoologie/Bison_des_plaines/Bison_des_plaines.xlsx
+++ b/biology/Zoologie/Bison_des_plaines/Bison_des_plaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bison bison bison
-Le Bison des plaines (Bison bison bison) est l'une des deux sous-espèces/écotypes du Bison d'Amérique du Nord, l'autre étant le Bison des bois (Bison bison athabascae)[2],[3],[4]. Une population naturelle de bisons des plaines survit dans le parc national de Yellowstone (le troupeau est composé d'environ 3 000 têtes). Plusieurs troupeaux de bisons habitent de nombreux espaces des grandes plaines américaines ainsi que du sud des prairies canadiennes.
+Le Bison des plaines (Bison bison bison) est l'une des deux sous-espèces/écotypes du Bison d'Amérique du Nord, l'autre étant le Bison des bois (Bison bison athabascae). Une population naturelle de bisons des plaines survit dans le parc national de Yellowstone (le troupeau est composé d'environ 3 000 têtes). Plusieurs troupeaux de bisons habitent de nombreux espaces des grandes plaines américaines ainsi que du sud des prairies canadiennes.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bison bison bison a pour synonymes selon BioLib                    (16 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bison bison bison a pour synonymes selon BioLib                    (16 mai 2021) :
 Bison bison occidentalis
 Bison bison oregonus Bailey, 1932
 Bison americanus pennsylvanicus Shoemaker, 1915
 Bison bison pennsylvanicus Shoemaker, 1915
 Bison bison septemtrionalis Figgins, 1933
 Bison sylvestris Hay, 1915
-Selon ITIS      (16 mai 2021)[5], Catalogue of Life                                   (16 mai 2021)[6] et GBIF       (16 mai 2021)[7], il n'existe pas de sous-espèce de Bison d'Amérique (Bison bison). Bison bison bison serait donc synonyme de Bison bison.
+Selon ITIS      (16 mai 2021), Catalogue of Life                                   (16 mai 2021) et GBIF       (16 mai 2021), il n'existe pas de sous-espèce de Bison d'Amérique (Bison bison). Bison bison bison serait donc synonyme de Bison bison.
 </t>
         </is>
       </c>
